--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91636.54843624588</v>
+        <v>-98647.27755224078</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>294.7336089782942</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>46.85885759373416</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>129.3708092532186</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.75777460433666</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.065178373629</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>145.9951119230966</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>16.11873981619019</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.3758058395856</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1026,10 +1026,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>167.5573060520123</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>75.28052054775038</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>57.61335059110235</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.0842368739447</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>209.9191586548687</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>382.5777920939739</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.76216320060061</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>119.8267326610451</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>132.8037959589636</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,10 +1430,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>46.87713095496913</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>26.30561415707524</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.3605951593679</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>242.6161130221226</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.78125614575903</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>36.21037993270498</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465757</v>
@@ -1777,10 +1777,10 @@
         <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>65.42493973217783</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697384</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497737</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.1738259657498</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564992</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167825</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196065</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380038</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667949</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644676</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883889</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541094</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038784</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.0080032065661</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665146</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1205.924395844153</v>
+        <v>594.992251062154</v>
       </c>
       <c r="C2" t="n">
-        <v>812.7488943470835</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="D2" t="n">
-        <v>812.7488943470835</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>812.7488943470835</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>259.7298875736949</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>259.7298875736949</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.71031657295</v>
+        <v>773.3325661833828</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>1989.837244714833</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172347</v>
+        <v>1734.084515149431</v>
       </c>
       <c r="V2" t="n">
-        <v>1576.923430875866</v>
+        <v>1391.97770585295</v>
       </c>
       <c r="W2" t="n">
-        <v>1205.924395844153</v>
+        <v>1391.97770585295</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.924395844153</v>
+        <v>1391.97770585295</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.924395844153</v>
+        <v>995.4869967735508</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>754.5642261353869</v>
+        <v>715.0405061833828</v>
       </c>
       <c r="C3" t="n">
-        <v>603.9099956954791</v>
+        <v>564.386275743475</v>
       </c>
       <c r="D3" t="n">
-        <v>473.8210283169594</v>
+        <v>434.2973083649554</v>
       </c>
       <c r="E3" t="n">
-        <v>337.3745374278471</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F3" t="n">
-        <v>212.942731310979</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G3" t="n">
-        <v>92.88291338284338</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>813.5918890426547</v>
       </c>
       <c r="M3" t="n">
-        <v>694.869426624575</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1898.178526015829</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1688.115382694471</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1465.575381065538</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1235.458135198825</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>1046.151057548837</v>
       </c>
       <c r="Y3" t="n">
-        <v>906.3605605763482</v>
+        <v>866.8368406243442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>759.7346632450061</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="C4" t="n">
-        <v>759.7346632450061</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="D4" t="n">
-        <v>657.6486244837647</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="E4" t="n">
-        <v>657.6486244837647</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="F4" t="n">
-        <v>500.3226896967376</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>188.9730567796683</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>374.1810754709696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>862.6879508334395</v>
+        <v>594.4170822467131</v>
       </c>
       <c r="C5" t="n">
-        <v>469.51244933637</v>
+        <v>594.4170822467131</v>
       </c>
       <c r="D5" t="n">
-        <v>469.51244933637</v>
+        <v>208.9759534633808</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>208.9759534633808</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>196.1219190337627</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.74336884542</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678799</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238216</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.016082672814</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V5" t="n">
-        <v>1529.016082672814</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="W5" t="n">
-        <v>1158.017047641102</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.017047641102</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="Y5" t="n">
-        <v>862.6879508334395</v>
+        <v>994.9118279581101</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127957</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.435512522888</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1846.68544544274</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1636.622302121382</v>
+        <v>1663.28987596755</v>
       </c>
       <c r="V6" t="n">
-        <v>1414.082300492449</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1183.965054625736</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>994.6579769757473</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>476.4042611761838</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="C7" t="n">
-        <v>476.4042611761838</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="D7" t="n">
-        <v>476.4042611761838</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="E7" t="n">
-        <v>476.4042611761838</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="X7" t="n">
-        <v>661.6122798674851</v>
+        <v>423.431155322775</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.6122798674851</v>
+        <v>423.431155322775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.707280991098</v>
+        <v>1089.4097182804</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.707280991098</v>
+        <v>1089.4097182804</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>1089.4097182804</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1089.4097182804</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>672.5152798103776</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>259.3525242983807</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4811,10 +4811,10 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.692735781894</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.202026702495</v>
+        <v>1489.904463991797</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="C10" t="n">
-        <v>557.0569583119874</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="D10" t="n">
-        <v>401.4238452145021</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="E10" t="n">
-        <v>401.4238452145021</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>168.350073799569</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="Y10" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2357.917152100884</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.917152100884</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.222718167679</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.1679011885523</v>
+        <v>268.8305097821773</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1679011885523</v>
+        <v>268.8305097821773</v>
       </c>
       <c r="D13" t="n">
-        <v>231.3310632372609</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372609</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
         <v>145.8014035964277</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840486</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614201</v>
+        <v>582.430342890163</v>
       </c>
       <c r="X13" t="n">
-        <v>551.166104490597</v>
+        <v>420.14629581934</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.5796447336597</v>
+        <v>268.8305097821773</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>815.124613155088</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312597</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873813</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2528.079890988294</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2210.423561067545</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>2211.748657236765</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>297.4971220488229</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="C16" t="n">
-        <v>297.4971220488229</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="D16" t="n">
-        <v>297.4971220488229</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="E16" t="n">
-        <v>213.7345850542193</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>128.2049254133861</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>128.2049254133861</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5434,13 +5434,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245443</v>
+        <v>905.7825322771346</v>
       </c>
       <c r="W16" t="n">
-        <v>724.5086987019158</v>
+        <v>694.2484053545061</v>
       </c>
       <c r="X16" t="n">
-        <v>562.2246516310928</v>
+        <v>531.9643582836831</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.90886559393</v>
+        <v>531.9643582836831</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099308</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,16 +5783,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,7 +5914,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
         <v>623.4297566485498</v>
@@ -5923,37 +5923,37 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G23" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,31 +6008,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012514</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750512</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,19 +6227,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,22 +6361,22 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,16 +6385,16 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>755.8323718938492</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
         <v>3390.346025506991</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1504.441740534771</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746019</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737099</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781679</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146212</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.07126703854</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897132</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076161</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076161</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076161</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929713</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404858</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.73045008374191</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786437</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169077</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>906.3032701055258</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543966</v>
+        <v>1180.660157722217</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320544</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625018</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273675</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400704</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045787</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027473</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6941,13 +6941,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,10 +7108,10 @@
         <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>456.9185815712231</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>456.9185815712231</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7658,7 +7658,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128482</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>217.3784717737104</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>458.7270813272261</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>432.7214721138499</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>412.0456484611406</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>559.646135768136</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>306.7311214244037</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N6" t="n">
-        <v>333.31361090365</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>181.9311023083783</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8459,13 +8459,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>558.845202393504</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8237719316268</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>342.4574509263905</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,10 +11139,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>374.1267046741214</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,10 +11154,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,10 +11388,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>194.6755812809253</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>249.3336013316944</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>56.69285541470323</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.44203301742321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>82.79537283742837</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>221.6662334481139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>76.06724617695134</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42051340121118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456094</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.538708137538961e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.592326932761353e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908346.4335190827</v>
+        <v>908346.4335190828</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>234431.8315213638</v>
       </c>
       <c r="C2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213637</v>
       </c>
       <c r="D2" t="n">
         <v>234431.8315213638</v>
@@ -26329,7 +26329,7 @@
         <v>234431.8315213637</v>
       </c>
       <c r="H2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213637</v>
       </c>
       <c r="I2" t="n">
         <v>234431.8315213638</v>
@@ -26341,7 +26341,7 @@
         <v>234431.831521364</v>
       </c>
       <c r="L2" t="n">
-        <v>234431.8315213636</v>
+        <v>234431.8315213638</v>
       </c>
       <c r="M2" t="n">
         <v>234431.8315213638</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.6940427711</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701646</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153196</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
@@ -26494,19 +26494,19 @@
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181663.5211348163</v>
+        <v>-178515.170548042</v>
       </c>
       <c r="C6" t="n">
-        <v>541.4271570395795</v>
+        <v>-4656.513513987113</v>
       </c>
       <c r="D6" t="n">
-        <v>-4321.855136835598</v>
+        <v>-12058.14436022728</v>
       </c>
       <c r="E6" t="n">
-        <v>-32226.34624590195</v>
+        <v>-32436.0777925915</v>
       </c>
       <c r="F6" t="n">
-        <v>79896.21522814262</v>
+        <v>79686.483681453</v>
       </c>
       <c r="G6" t="n">
-        <v>6993.324653842399</v>
+        <v>6993.324653842363</v>
       </c>
       <c r="H6" t="n">
-        <v>54418.65019052457</v>
+        <v>54418.65019052436</v>
       </c>
       <c r="I6" t="n">
-        <v>54418.65019052446</v>
+        <v>54418.65019052437</v>
       </c>
       <c r="J6" t="n">
-        <v>-158623.2674067609</v>
+        <v>-152106.9822521875</v>
       </c>
       <c r="K6" t="n">
-        <v>48178.88178774166</v>
+        <v>48178.88178774171</v>
       </c>
       <c r="L6" t="n">
-        <v>-7003.707146879926</v>
+        <v>-11052.54435735191</v>
       </c>
       <c r="M6" t="n">
-        <v>12217.82073090148</v>
+        <v>11166.12571971325</v>
       </c>
       <c r="N6" t="n">
-        <v>54418.65019052451</v>
+        <v>54418.65019052444</v>
       </c>
       <c r="O6" t="n">
-        <v>26650.95614775332</v>
+        <v>26650.9561477534</v>
       </c>
       <c r="P6" t="n">
-        <v>54418.65019052449</v>
+        <v>54418.65019052441</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346387</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407301</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>117.9918851070278</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>174.4067388224433</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.711216727002522</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>97.76330015091118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.0116035928814</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.92865360502438</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27591,13 +27591,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>392.9123881406866</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.1499961490193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.656667631068274</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>132.6819913403942</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>125.7425879132859</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>47.6684385652121</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>110.9230612743055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>2.980286922299797</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7409035540701</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>34.09703286707582</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634527898</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,19 +28986,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634527898</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29299,22 +29299,22 @@
         <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431647</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599567</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>48.65992738833143</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683159843</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.976438440452</v>
+        <v>76.79385455031226</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30223,7 +30223,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155841</v>
       </c>
       <c r="D38" t="n">
         <v>130.3599693155844</v>
@@ -30405,25 +30405,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.636002634528381</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.01250026485285</v>
       </c>
       <c r="R43" t="n">
         <v>130.3599693155844</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>35.71049010668847</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32005,7 +32005,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -33913,7 +33913,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>74.32006859447308</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>309.0020297294988</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.6611252569317</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>326.6735356069739</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>406.3979660376443</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>157.6126300866196</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N6" t="n">
-        <v>247.9414980494833</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>409.2813649694075</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>539.4516590774601</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565479</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716068</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950867</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877753</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009064</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>249.7698920375016</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>546.9632523565424</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426576</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060448</v>
+        <v>80.25061856046474</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682118</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437664</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>193.8093140873203</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>284.5297693407881</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500534</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,10 +38108,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>200.0587396437673</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
